--- a/Examples/DataFiles/Inlet_temperature_profile_Dicken_and_Merida.xlsx
+++ b/Examples/DataFiles/Inlet_temperature_profile_Dicken_and_Merida.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\SES Research\Private\vr2e13\REFPROP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pau/Desktop/Individual_Project/Hydrogen Filling/Examples/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED2FF3-BF45-B349-99BA-E9C1F7B76D45}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="12570"/>
+    <workbookView xWindow="840" yWindow="560" windowWidth="27960" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,676 +348,676 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C83"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>293.39999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.20899999999999999</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>298.79000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>302.43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>303.29000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>302.82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.48699999999999999</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>302.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.55700000000000005</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>301.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.626</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>301.24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.76500000000000001</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>300.83999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>301.04000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.04</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>301.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1.18</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>301.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.53</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>301.83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.81</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>301.95999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2.23</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>302.10000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2.57</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>302.36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.06</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>302.69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.34</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>302.82</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.69</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>302.95999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>302.95999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4.59</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>302.82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5.15</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>302.69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5.63</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>302.56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>6.12</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>302.36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6.68</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>302.10000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7.3</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>301.89999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>7.72</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>301.7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>8.14</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>301.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>301.3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9.18</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>301.11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>9.5299999999999994</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>300.97000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>9.8800000000000008</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>300.83999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>10.4</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>300.64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>10.8</v>
       </c>
-      <c r="C35">
+      <c r="B35">
         <v>300.51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>11.3</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>300.31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>11.8</v>
       </c>
-      <c r="C37">
+      <c r="B37">
         <v>300.18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>12.1</v>
       </c>
-      <c r="C38">
+      <c r="B38">
         <v>300.05</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>12.5</v>
       </c>
-      <c r="C39">
+      <c r="B39">
         <v>299.92</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>12.9</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>299.77999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>13.3</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>299.58999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>13.8</v>
       </c>
-      <c r="C42">
+      <c r="B42">
         <v>299.52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>14.5</v>
       </c>
-      <c r="C43">
+      <c r="B43">
         <v>299.32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>15</v>
       </c>
-      <c r="C44">
+      <c r="B44">
         <v>299.06</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>15.6</v>
       </c>
-      <c r="C45">
+      <c r="B45">
         <v>298.93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C46">
+      <c r="B46">
         <v>298.79000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>16.7</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>298.66000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>17.2</v>
       </c>
-      <c r="C48">
+      <c r="B48">
         <v>298.52999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>17.7</v>
       </c>
-      <c r="C49">
+      <c r="B49">
         <v>298.39999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="C50">
+      <c r="B50">
         <v>298.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="C51">
+      <c r="B51">
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="C52">
+      <c r="B52">
         <v>297.87</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="C53">
+      <c r="B53">
         <v>297.67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>20.7</v>
       </c>
-      <c r="C54">
+      <c r="B54">
         <v>297.54000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>21.3</v>
       </c>
-      <c r="C55">
+      <c r="B55">
         <v>297.33999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>22.1</v>
       </c>
-      <c r="C56">
+      <c r="B56">
         <v>297.14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>22.7</v>
       </c>
-      <c r="C57">
+      <c r="B57">
         <v>297.01</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>23.4</v>
       </c>
-      <c r="C58">
+      <c r="B58">
         <v>296.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>24.1</v>
       </c>
-      <c r="C59">
+      <c r="B59">
         <v>296.61</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>24.8</v>
       </c>
-      <c r="C60">
+      <c r="B60">
         <v>296.48</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>25.3</v>
       </c>
-      <c r="C61">
+      <c r="B61">
         <v>296.35000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>25.8</v>
       </c>
-      <c r="C62">
+      <c r="B62">
         <v>296.22000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>26.4</v>
       </c>
-      <c r="C63">
+      <c r="B63">
         <v>296.08</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>26.9</v>
       </c>
-      <c r="C64">
+      <c r="B64">
         <v>296.02</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>27.5</v>
       </c>
-      <c r="C65">
+      <c r="B65">
         <v>295.82</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>28.2</v>
       </c>
-      <c r="C66">
+      <c r="B66">
         <v>295.69</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>28.8</v>
       </c>
-      <c r="C67">
+      <c r="B67">
         <v>295.49</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>29.5</v>
       </c>
-      <c r="C68">
+      <c r="B68">
         <v>295.36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>30.1</v>
       </c>
-      <c r="C69">
+      <c r="B69">
         <v>295.22000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>30.8</v>
       </c>
-      <c r="C70">
+      <c r="B70">
         <v>295.08999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>31.4</v>
       </c>
-      <c r="C71">
+      <c r="B71">
         <v>295.02999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>31.9</v>
       </c>
-      <c r="C72">
+      <c r="B72">
         <v>294.89</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>32.6</v>
       </c>
-      <c r="C73">
+      <c r="B73">
         <v>294.83</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>33.1</v>
       </c>
-      <c r="C74">
+      <c r="B74">
         <v>294.76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>33.700000000000003</v>
       </c>
-      <c r="C75">
+      <c r="B75">
         <v>294.7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34.4</v>
       </c>
-      <c r="C76">
+      <c r="B76">
         <v>294.56</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>35</v>
       </c>
-      <c r="C77">
+      <c r="B77">
         <v>294.43</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="C78">
+      <c r="B78">
         <v>294.37</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>36.200000000000003</v>
       </c>
-      <c r="C79">
+      <c r="B79">
         <v>294.3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="C80">
+      <c r="B80">
         <v>294.17</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>37.1</v>
       </c>
-      <c r="C81">
+      <c r="B81">
         <v>294.10000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38</v>
       </c>
-      <c r="C82">
+      <c r="B82">
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>40</v>
       </c>
-      <c r="C83">
+      <c r="B83">
         <v>293.8</v>
       </c>
     </row>
